--- a/prodinfo/eur_asia/source_ru.xlsx
+++ b/prodinfo/eur_asia/source_ru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\业务诉求分析-中东非\业务反馈\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF0CDDC-80A4-4CF7-A505-168605015072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE33641-3227-4D48-8985-6AE2C2D3AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{23EF0F8D-B734-4C14-B799-F0FACCE51800}"/>
   </bookViews>
@@ -39,13 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
   <si>
-    <t>国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品链接</t>
-  </si>
-  <si>
     <t>https://www.dns-shop.ru/product/e8739ebbfd73d582/67-smartfon-samsung-galaxy-a36-128-gb-cernyj/</t>
   </si>
   <si>
@@ -187,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>渠道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SAMSUNG A36 8+128</t>
   </si>
   <si>
@@ -300,6 +289,18 @@
   </si>
   <si>
     <t>sku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +807,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
@@ -819,548 +820,548 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C39" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
